--- a/results_it/harvest_corr_ranking.xlsx
+++ b/results_it/harvest_corr_ranking.xlsx
@@ -453,157 +453,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
+          <t>sunshine_duration_h_150days_sum</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4985789239691619</v>
+        <v>-0.6264691741759411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008120288393226753</v>
+        <v>0.0002771619221688774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>mean_temp_C_121-150days_avg</t>
+          <t>sunshine_duration_h_60days_sum</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.4698613541786309</v>
+        <v>-0.6116867077812391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01340128049928689</v>
+        <v>0.0004222974531602532</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>min_temp_C_150days_sum</t>
+          <t>sunshine_duration_h_15-30days_avg</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4553991212973831</v>
+        <v>-0.6101801234379537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0169864959686852</v>
+        <v>0.0004403021120659028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>min_temp_C_121-150days_avg</t>
+          <t>sunshine_duration_h_120days_sum</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.451539493580684</v>
+        <v>-0.5666134682574202</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01806639503742095</v>
+        <v>0.001352772332721676</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_121-150days_avg</t>
+          <t>sunshine_duration_h_90days_sum</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.4439557424280747</v>
+        <v>-0.5476525483195746</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02035267965016818</v>
+        <v>0.002104654804541393</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_150days_sum</t>
+          <t>sunshine_duration_h_30days_sum</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4217165647164516</v>
+        <v>-0.4899404743537168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02845420827822438</v>
+        <v>0.006978646702090308</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_31-60days_avg</t>
+          <t>total_precip_mm_31-60days_avg</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3862194468106648</v>
+        <v>0.4552402691720396</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04660531801837723</v>
+        <v>0.01308424879142374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_60days_sum</t>
+          <t>total_precip_mm_150days_sum</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.3818186562782597</v>
+        <v>0.4367643306648716</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04938043549484229</v>
+        <v>0.01783844498734105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_150days_sum</t>
+          <t>sunshine_duration_h_31-60days_avg</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.3804820556794615</v>
+        <v>-0.4315374816135251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05024854072466139</v>
+        <v>0.01941642374933876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_90days_sum</t>
+          <t>total_precip_mm_15-30days_avg</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3692651909555238</v>
+        <v>0.4055352238809616</v>
       </c>
       <c r="C11" t="n">
-        <v>0.058015301753587</v>
+        <v>0.02906777875101063</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_150days_sum</t>
+          <t>sunshine_duration_h_121-150days_avg</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.3635226271008285</v>
+        <v>-0.3975704245360742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06233800455424145</v>
+        <v>0.0327013582404365</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>max_temp_C_121-150days_avg</t>
+          <t>total_precip_mm_121-150days_avg</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3520709217337989</v>
+        <v>0.3931223775141284</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07170072874082736</v>
+        <v>0.03488491286912593</v>
       </c>
     </row>
     <row r="14">
@@ -613,1479 +613,1479 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.3501502720004041</v>
+        <v>0.3903153532771</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07337154256790356</v>
+        <v>0.03632225247481288</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mean_temp_C_150days_sum</t>
+          <t>min_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3450465318471023</v>
+        <v>0.3767563016015885</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07795663798031173</v>
+        <v>0.04394915589577754</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_31-60days_avg</t>
+          <t>min_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.3422571012973797</v>
+        <v>0.368090287270468</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08055340115027494</v>
+        <v>0.04945677439176565</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_121-150days_avg</t>
+          <t>total_precip_mm_120days_sum</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.3387371610241208</v>
+        <v>0.3573985038781813</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08392366147916716</v>
+        <v>0.05698860531458321</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_120days_sum</t>
+          <t>min_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.3383761134064078</v>
+        <v>0.347597574279853</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08427531999244363</v>
+        <v>0.06465697113331827</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_120days_sum</t>
+          <t>mean_humidity_pct_31-60days_avg</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.3372303150594127</v>
+        <v>0.3424893252755785</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08539873315948084</v>
+        <v>0.06895987825520175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.3251459035550743</v>
+        <v>0.3402617476072281</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09794895432714601</v>
+        <v>0.07090430968428639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_15-30days_avg</t>
+          <t>total_precip_mm_91-120days_avg</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.313909692024761</v>
+        <v>0.3397992128485656</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1108137266330958</v>
+        <v>0.07131331424633028</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>min_temp_C_120days_sum</t>
+          <t>total_precip_mm_60days_sum</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.3127314546879268</v>
+        <v>0.3319999699577791</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1122319247074198</v>
+        <v>0.07848808983060489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>mean_temp_C_91-120days_avg</t>
+          <t>min_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3019118335156672</v>
+        <v>0.3242522588983658</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1258889511086795</v>
+        <v>0.08615141957495973</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_1-7days_avg</t>
+          <t>min_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2928585043076949</v>
+        <v>0.3204951913327033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1382187838581858</v>
+        <v>0.09006674725219052</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_7days_sum</t>
+          <t>total_precip_mm_90days_sum</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2928585043076948</v>
+        <v>0.2888150500141805</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1382187838581861</v>
+        <v>0.1286380511195684</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_90days_sum</t>
+          <t>min_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2916466928699581</v>
+        <v>0.271855912694457</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1399331338483016</v>
+        <v>0.1536884413734274</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_60days_sum</t>
+          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.2895697416410147</v>
+        <v>0.258617519666162</v>
       </c>
       <c r="C27" t="n">
-        <v>0.1429070113575232</v>
+        <v>0.175540402785914</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_90days_sum</t>
+          <t>min_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.2862828153299248</v>
+        <v>0.2572742896566674</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1477059613794263</v>
+        <v>0.1778737088478007</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>total_precip_mm_121-150days_avg</t>
+          <t>mean_vapor_pressure_hPa_60days_sum</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.2832768850791139</v>
+        <v>0.2556236684558059</v>
       </c>
       <c r="C29" t="n">
-        <v>0.152194840759829</v>
+        <v>0.180770687218185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>min_temp_C_8-14days_avg</t>
+          <t>min_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.2746200305411667</v>
+        <v>0.2459635390256404</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1656651342080735</v>
+        <v>0.1983883443338758</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>max_temp_C_91-120days_avg</t>
+          <t>mean_humidity_pct_14days_sum</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2689116301394748</v>
+        <v>-0.2398817072909495</v>
       </c>
       <c r="C31" t="n">
-        <v>0.174995355426436</v>
+        <v>0.2100684938701577</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_15-30days_avg</t>
+          <t>mean_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.2610188752472672</v>
+        <v>0.2252561985972668</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1884929873654859</v>
+        <v>0.240051638652266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
+          <t>mean_humidity_pct_60days_sum</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.2588182327608878</v>
+        <v>0.2213659297724199</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1923813947569467</v>
+        <v>0.2484827145684073</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_31-60days_avg</t>
+          <t>sunshine_duration_h_91-120days_avg</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.2572009882865492</v>
+        <v>-0.2207518365333993</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1952740074168629</v>
+        <v>0.2498312160233082</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>min_temp_C_91-120days_avg</t>
+          <t>mean_vapor_pressure_hPa_150days_sum</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.2559505643674627</v>
+        <v>0.2171053036137216</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1975309363507897</v>
+        <v>0.2579379395789239</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_120days_sum</t>
+          <t>mean_vapor_pressure_hPa_120days_sum</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.2411737019235091</v>
+        <v>0.2054519669966079</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2255642726633455</v>
+        <v>0.284987018497902</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>max_temp_C_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_91-120days_avg</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.2349493177251601</v>
+        <v>0.1977898597304372</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2381327797026247</v>
+        <v>0.3037221618649424</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>max_temp_C_7days_sum</t>
+          <t>max_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.23494931772516</v>
+        <v>-0.1864935552807171</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2381327797026252</v>
+        <v>0.3327169058072618</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_61-90days_avg</t>
+          <t>min_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2307765766435039</v>
+        <v>0.1831622398001915</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2468133951784579</v>
+        <v>0.3415787407650474</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>mean_temp_C_120days_sum</t>
+          <t>total_precip_mm_30days_sum</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2301002715852075</v>
+        <v>0.1748095799684721</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2482396543152643</v>
+        <v>0.3644167866445384</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_61-90days_avg</t>
+          <t>min_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2223711365378938</v>
+        <v>0.1735159261456233</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2649237645172719</v>
+        <v>0.368032583720052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>max_temp_C_150days_sum</t>
+          <t>mean_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2153487707242231</v>
+        <v>0.1722368379685837</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2806963948631978</v>
+        <v>0.3716282979336526</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>mean_temp_C_8-14days_avg</t>
+          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.2093983967893532</v>
+        <v>0.1655237267894648</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2945197957647504</v>
+        <v>0.390834383965469</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>min_temp_C_90days_sum</t>
+          <t>mean_vapor_pressure_hPa_7days_sum</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.202677254395303</v>
+        <v>0.1655237267894647</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3106395547932104</v>
+        <v>0.390834383965469</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_30days_sum</t>
+          <t>mean_vapor_pressure_hPa_90days_sum</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.1950428313221806</v>
+        <v>0.1629397981683062</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3295989807945889</v>
+        <v>0.3983757031935056</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_30days_sum</t>
+          <t>mean_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.188077284332453</v>
+        <v>0.1602065903999586</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3474968714309467</v>
+        <v>0.4064419152140517</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_91-120days_avg</t>
+          <t>mean_vapor_pressure_hPa_14days_sum</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.1866937058118078</v>
+        <v>-0.1600607476427748</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3511197139143518</v>
+        <v>0.4068748913967907</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>mean_temp_C_1-7days_avg</t>
+          <t>mean_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1820780807316037</v>
+        <v>0.1560782606339808</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3633670852494849</v>
+        <v>0.4187979803980883</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>mean_temp_C_7days_sum</t>
+          <t>mean_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1820780807316036</v>
+        <v>0.1504288628379969</v>
       </c>
       <c r="C49" t="n">
-        <v>0.3633670852494849</v>
+        <v>0.4360394568941052</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>min_temp_C_61-90days_avg</t>
+          <t>mean_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.1720626475300399</v>
+        <v>0.1383930120339435</v>
       </c>
       <c r="C50" t="n">
-        <v>0.3907906043392131</v>
+        <v>0.4740264194158629</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_15-30days_avg</t>
+          <t>max_temp_C_91-120days_avg</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.166189543784598</v>
+        <v>0.1369727035778875</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4074051991296545</v>
+        <v>0.4786193163165568</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>max_temp_C_8-14days_avg</t>
+          <t>min_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.1661695001672588</v>
+        <v>0.1343716753130605</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4074625686224091</v>
+        <v>0.4870894133996317</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_150days_sum</t>
+          <t>min_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.1607177911465024</v>
+        <v>0.1343716753130604</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4232336668255811</v>
+        <v>0.4870894133996317</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_120days_sum</t>
+          <t>mean_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.1602613636167937</v>
+        <v>-0.13257274304315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4245690762593762</v>
+        <v>0.4929918687690568</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_8-14days_avg</t>
+          <t>mean_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.1596688730209048</v>
+        <v>-0.13257274304315</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4263060191648944</v>
+        <v>0.4929918687690568</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_1-7days_avg</t>
+          <t>mean_vapor_pressure_hPa_121-150days_avg</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.1588749826764045</v>
+        <v>0.1305689184723791</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4286394700280453</v>
+        <v>0.4996088825839315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_7days_sum</t>
+          <t>mean_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.1588749826764043</v>
+        <v>0.1292584837997464</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4286394700280458</v>
+        <v>0.5039601079073465</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>max_temp_C_120days_sum</t>
+          <t>min_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1571637389247132</v>
+        <v>0.1291256911822487</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4336928938086467</v>
+        <v>0.5044020882489714</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_8-14days_avg</t>
+          <t>mean_humidity_pct_150days_sum</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1512065105744865</v>
+        <v>0.1267231657667706</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4515347171384754</v>
+        <v>0.5124316994498905</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>total_precip_mm_61-90days_avg</t>
+          <t>mean_humidity_pct_120days_sum</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1507399830837449</v>
+        <v>0.1239677877118529</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4529482028379681</v>
+        <v>0.5217173172527216</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
+          <t>mean_humidity_pct_90days_sum</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1503872691950146</v>
+        <v>0.1206464928450285</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4540184103475776</v>
+        <v>0.533017472089407</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>min_temp_C_31-60days_avg</t>
+          <t>mean_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1497299335324436</v>
+        <v>0.1184075294492385</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4560164695110309</v>
+        <v>0.5407004528578196</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>total_precip_mm_14days_sum</t>
+          <t>max_temp_C_8-14days_avg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.1494831393864079</v>
+        <v>0.1046976767292036</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4567678297385931</v>
+        <v>0.5888503097813329</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_30days_sum</t>
+          <t>mean_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1490785301446311</v>
+        <v>0.1026038127154776</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4580010663933358</v>
+        <v>0.5963649833229502</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_91-120days_avg</t>
+          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1489901019333376</v>
+        <v>0.1005543037852622</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4582708261411458</v>
+        <v>0.603760085727675</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_90days_sum</t>
+          <t>max_wind_speed_mps_7days_sum</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1475535311557823</v>
+        <v>-0.1000771710633902</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4626649335004698</v>
+        <v>0.6054872507828939</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_15-30days_avg</t>
+          <t>max_wind_speed_mps_1-7days_avg</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1473210058172294</v>
+        <v>-0.1000771710633902</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4633782371585086</v>
+        <v>0.6054872507828939</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_121-150days_avg</t>
+          <t>mean_vapor_pressure_hPa_30days_sum</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1426689411646745</v>
+        <v>0.09950538114104097</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4777691989423247</v>
+        <v>0.6075598083154917</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_61-90days_avg</t>
+          <t>total_precip_mm_8-14days_avg</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1382357974468758</v>
+        <v>-0.09490042712028068</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4916932918480911</v>
+        <v>0.6243587965948565</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_14days_sum</t>
+          <t>max_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.13617879350401</v>
+        <v>-0.09380943786410725</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4982228304665864</v>
+        <v>0.6283663053696115</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>total_precip_mm_30days_sum</t>
+          <t>sunshine_duration_h_7days_sum</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.1356798175946424</v>
+        <v>-0.08980148737920099</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4998132234851204</v>
+        <v>0.6431768122020174</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_30days_sum</t>
+          <t>sunshine_duration_h_1-7days_avg</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.133627504165891</v>
+        <v>-0.08980148737920093</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5063810789043309</v>
+        <v>0.6431768122020174</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>total_precip_mm_1-7days_avg</t>
+          <t>mean_humidity_pct_7days_sum</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.1261461175010563</v>
+        <v>0.08890129772704979</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5306783873736877</v>
+        <v>0.6465220006663907</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>total_precip_mm_7days_sum</t>
+          <t>mean_humidity_pct_1-7days_avg</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.1261461175010563</v>
+        <v>0.08890129772704969</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5306783873736877</v>
+        <v>0.6465220006663918</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>min_temp_C_1-7days_avg</t>
+          <t>mean_humidity_pct_91-120days_avg</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1251535778094049</v>
+        <v>0.08182664149931448</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5339430327584328</v>
+        <v>0.6730426604907965</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>min_temp_C_7days_sum</t>
+          <t>mean_temp_C_15-30days_avg</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1251535778094049</v>
+        <v>0.0799391642191489</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5339430327584328</v>
+        <v>0.6801851666554773</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>min_temp_C_14days_sum</t>
+          <t>mean_vapor_pressure_hPa_61-90days_avg</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.1214488959205486</v>
+        <v>-0.07985580730143041</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5462118171650051</v>
+        <v>0.6805012325275376</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_120days_sum</t>
+          <t>mean_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1210849709113042</v>
+        <v>0.07958220693198567</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5474240581298976</v>
+        <v>0.6815390195953236</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_150days_sum</t>
+          <t>mean_humidity_pct_121-150days_avg</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1187233846082483</v>
+        <v>0.07854271094865072</v>
       </c>
       <c r="C79" t="n">
-        <v>0.555320745466959</v>
+        <v>0.6854870775207854</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_91-120days_avg</t>
+          <t>sunshine_duration_h_14days_sum</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1180936244076106</v>
+        <v>-0.07758159629871002</v>
       </c>
       <c r="C80" t="n">
-        <v>0.5574353233126248</v>
+        <v>0.6891446630971959</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>total_precip_mm_31-60days_avg</t>
+          <t>max_temp_C_14days_sum</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1164414113404078</v>
+        <v>0.07259888847926775</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5630004587826644</v>
+        <v>0.7082151039427936</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_60days_sum</t>
+          <t>mean_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1148935742077338</v>
+        <v>-0.06835251638282275</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5682367290724892</v>
+        <v>0.7246052157645297</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_30days_sum</t>
+          <t>mean_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.1146798998546377</v>
+        <v>0.0661275640679166</v>
       </c>
       <c r="C83" t="n">
-        <v>0.5689612939408102</v>
+        <v>0.7332413697772669</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_90days_sum</t>
+          <t>sunshine_duration_h_61-90days_avg</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.113689210753133</v>
+        <v>-0.06526300455672593</v>
       </c>
       <c r="C84" t="n">
-        <v>0.5723260978403815</v>
+        <v>0.7366058347750629</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_14days_sum</t>
+          <t>max_wind_speed_mps_14days_sum</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1095336202434823</v>
+        <v>-0.06385370823065241</v>
       </c>
       <c r="C85" t="n">
-        <v>0.5865359414398198</v>
+        <v>0.7421003614262022</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_14days_sum</t>
+          <t>mean_humidity_pct_61-90days_avg</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1093015971505283</v>
+        <v>-0.05946706299484297</v>
       </c>
       <c r="C86" t="n">
-        <v>0.5873338347002109</v>
+        <v>0.7592813029308458</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>min_temp_C_60days_sum</t>
+          <t>max_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1067425717565973</v>
+        <v>-0.0590237821850567</v>
       </c>
       <c r="C87" t="n">
-        <v>0.5961650355107541</v>
+        <v>0.7610238806848236</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>mean_temp_C_90days_sum</t>
+          <t>mean_wind_speed_mps_31-60days_avg</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1060000600482064</v>
+        <v>-0.05820562591149701</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5987380278918137</v>
+        <v>0.7642431273752364</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_121-150days_avg</t>
+          <t>max_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.1034911468170384</v>
+        <v>-0.05713727333269063</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6074667857730193</v>
+        <v>0.7684526211846721</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_60days_sum</t>
+          <t>mean_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.1017257419335863</v>
+        <v>0.05585399217087206</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6136405416027068</v>
+        <v>0.7735174876999606</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>total_precip_mm_8-14days_avg</t>
+          <t>total_precip_mm_61-90days_avg</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.08999609872164989</v>
+        <v>-0.05405227470695781</v>
       </c>
       <c r="C91" t="n">
-        <v>0.655298633552358</v>
+        <v>0.7806438573414829</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>mean_temp_C_60days_sum</t>
+          <t>mean_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08849638216766911</v>
+        <v>0.05366913346463193</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6607016671005814</v>
+        <v>0.7821615684035844</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>mean_temp_C_31-60days_avg</t>
+          <t>mean_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.08398566262504704</v>
+        <v>0.05366913346463183</v>
       </c>
       <c r="C93" t="n">
-        <v>0.677051836949241</v>
+        <v>0.782161568403584</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>max_temp_C_30days_sum</t>
+          <t>max_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.07971132828984354</v>
+        <v>-0.05217556831697129</v>
       </c>
       <c r="C94" t="n">
-        <v>0.6926782516382648</v>
+        <v>0.7880853493841908</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_31-60days_avg</t>
+          <t>max_temp_C_30days_sum</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.07935349831957848</v>
+        <v>-0.0521750178600856</v>
       </c>
       <c r="C95" t="n">
-        <v>0.6939921237320342</v>
+        <v>0.7880875347617839</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>total_precip_mm_150days_sum</t>
+          <t>min_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.07576205259915379</v>
+        <v>0.05005376985671212</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7072263901678699</v>
+        <v>0.7965206720570087</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>mean_temp_C_61-90days_avg</t>
+          <t>max_temp_C_90days_sum</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.07467188921341852</v>
+        <v>-0.04893030328245449</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7112602703278889</v>
+        <v>0.80099623401111</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>max_temp_C_90days_sum</t>
+          <t>max_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.07379882073798617</v>
+        <v>-0.04445614826432573</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7144963311703103</v>
+        <v>0.8188798436164091</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>max_temp_C_60days_sum</t>
+          <t>max_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.07143289965300915</v>
+        <v>-0.0440660360788335</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7232898167275259</v>
+        <v>0.8204435154347179</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>max_temp_C_14days_sum</t>
+          <t>max_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.0658413202529864</v>
+        <v>-0.04036598308518993</v>
       </c>
       <c r="C100" t="n">
-        <v>0.744207162812223</v>
+        <v>0.8353069792523258</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_8-14days_avg</t>
+          <t>mean_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.06557131021012594</v>
+        <v>0.0397537944167903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7452218662285275</v>
+        <v>0.8377717005784182</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_8-14days_avg</t>
+          <t>mean_temp_C_61-90days_avg</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.06520980625962633</v>
+        <v>-0.03717098086841879</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7465810552686383</v>
+        <v>0.8481865946873448</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_31-60days_avg</t>
+          <t>total_precip_mm_7days_sum</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.06184863231408237</v>
+        <v>0.0336652808566912</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7592534008164136</v>
+        <v>0.8623626927593565</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>total_precip_mm_60days_sum</t>
+          <t>total_precip_mm_1-7days_avg</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.05860628121783529</v>
+        <v>0.03366528085669117</v>
       </c>
       <c r="C104" t="n">
-        <v>0.7715355665688796</v>
+        <v>0.8623626927593596</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>mean_temp_C_15-30days_avg</t>
+          <t>mean_humidity_pct_8-14days_avg</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.05642842636667789</v>
+        <v>-0.03353880412966913</v>
       </c>
       <c r="C105" t="n">
-        <v>0.7798158521562634</v>
+        <v>0.8628749395612129</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>max_temp_C_15-30days_avg</t>
+          <t>max_temp_C_60days_sum</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.05636055057579475</v>
+        <v>-0.03108319009349999</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7800743006631398</v>
+        <v>0.8728310235535058</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>max_temp_C_61-90days_avg</t>
+          <t>sunshine_duration_h_8-14days_avg</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.05591460804474955</v>
+        <v>-0.02903389986394691</v>
       </c>
       <c r="C107" t="n">
-        <v>0.7817728680926089</v>
+        <v>0.8811543342337903</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_8-14days_avg</t>
+          <t>total_precip_mm_14days_sum</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.05269460888412857</v>
+        <v>-0.02853058871372807</v>
       </c>
       <c r="C108" t="n">
-        <v>0.7940662059629015</v>
+        <v>0.8832004913424996</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>mean_temp_C_30days_sum</t>
+          <t>max_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.05097743205145074</v>
+        <v>-0.02377302481406551</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8006419408121295</v>
+        <v>0.9025764020170043</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_7days_sum</t>
+          <t>max_temp_C_1-7days_avg</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.04853471081183193</v>
+        <v>0.02349428180319238</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8100188575375914</v>
+        <v>0.9037134336146585</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>max_wind_speed_mps_1-7days_avg</t>
+          <t>max_temp_C_7days_sum</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.04853471081183192</v>
+        <v>0.02349428180319229</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8100188575375914</v>
+        <v>0.9037134336146593</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_91-120days_avg</t>
+          <t>max_wind_speed_mps_61-90days_avg</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.04819773099965937</v>
+        <v>-0.0231903599775804</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8113144699616227</v>
+        <v>0.9049533853066101</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>min_temp_C_30days_sum</t>
+          <t>mean_wind_speed_mps_60days_sum</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.04799158482794783</v>
+        <v>-0.02210176354365515</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8121072955459354</v>
+        <v>0.909396455886338</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>sunshine_duration_h_61-90days_avg</t>
+          <t>max_wind_speed_mps_15-30days_avg</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.04586418942481131</v>
+        <v>0.02207638221927102</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8202995567980343</v>
+        <v>0.9095000813408198</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>max_temp_C_31-60days_avg</t>
+          <t>max_temp_C_121-150days_avg</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.04580517229229965</v>
+        <v>0.02116833030006533</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8205270890924907</v>
+        <v>0.9132083678663829</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>mean_humidity_pct_14days_sum</t>
+          <t>max_wind_speed_mps_91-120days_avg</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.04079112033454275</v>
+        <v>-0.01965572725624185</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8399080419858309</v>
+        <v>0.9193894316384309</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_14days_sum</t>
+          <t>max_temp_C_150days_sum</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.0379105839669451</v>
+        <v>0.01504977873442713</v>
       </c>
       <c r="C117" t="n">
-        <v>0.851084354678561</v>
+        <v>0.9382379077017934</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>min_temp_C_15-30days_avg</t>
+          <t>max_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.03721295805917848</v>
+        <v>-0.01394053953115879</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8537954150691383</v>
+        <v>0.9427824017013486</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_1-7days_avg</t>
+          <t>mean_wind_speed_mps_30days_sum</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.03637125654884316</v>
+        <v>0.01302741983572729</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8570685267158047</v>
+        <v>0.9465247295444007</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>mean_vapor_pressure_hPa_7days_sum</t>
+          <t>max_temp_C_120days_sum</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.03637125654884305</v>
+        <v>0.0120768261698681</v>
       </c>
       <c r="C120" t="n">
-        <v>0.8570685267158052</v>
+        <v>0.9504218222529724</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_1-7days_avg</t>
+          <t>max_temp_C_31-60days_avg</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.03372997272778178</v>
+        <v>-0.009921644641292374</v>
       </c>
       <c r="C121" t="n">
-        <v>0.8673543939022816</v>
+        <v>0.9592612990039835</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>mean_wind_speed_mps_7days_sum</t>
+          <t>mean_wind_speed_mps_121-150days_avg</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.03372997272778173</v>
+        <v>-0.008067100682956792</v>
       </c>
       <c r="C122" t="n">
-        <v>0.8673543939022816</v>
+        <v>0.9668715328819338</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>mean_temp_C_14days_sum</t>
+          <t>mean_humidity_pct_30days_sum</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.01206880561073437</v>
+        <v>-0.008036978510896145</v>
       </c>
       <c r="C123" t="n">
-        <v>0.9523579845983272</v>
+        <v>0.966995166312144</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>total_precip_mm_120days_sum</t>
+          <t>mean_wind_speed_mps_120days_sum</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.004854865608193079</v>
+        <v>0.007326490263861282</v>
       </c>
       <c r="C124" t="n">
-        <v>0.9808262857099311</v>
+        <v>0.9699115048415313</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>total_precip_mm_90days_sum</t>
+          <t>mean_wind_speed_mps_8-14days_avg</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.004238038473260666</v>
+        <v>0.006048220549368363</v>
       </c>
       <c r="C125" t="n">
-        <v>0.9832620112670268</v>
+        <v>0.9751593449838796</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>total_precip_mm_91-120days_avg</t>
+          <t>mean_wind_speed_mps_150days_sum</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>0.003164548051223771</v>
+        <v>0.004815143198531914</v>
       </c>
       <c r="C126" t="n">
-        <v>0.9875013444438471</v>
+        <v>0.9802226149489518</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>total_precip_mm_15-30days_avg</t>
+          <t>mean_wind_speed_mps_90days_sum</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-0.001206857950137606</v>
+        <v>-0.001620637558056219</v>
       </c>
       <c r="C127" t="n">
-        <v>0.9952332540328855</v>
+        <v>0.9933429355299452</v>
       </c>
     </row>
   </sheetData>
